--- a/biology/Zoologie/Foreur/Foreur.xlsx
+++ b/biology/Zoologie/Foreur/Foreur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les foreurs sont un groupe écologique d'insectes xylophages appartenant principalement à l'ordre des lépidoptères et coléoptères (dont leurs larves telles que les chenilles dans le cas des lépidoptères) creusent des galeries dans les parties plus ou moins lignifiés de certaines plantes (tiges, depuis le brin d'herbe fibreux jusqu'au tronc très lignifié). Les femelles pondent des œufs dans les tissus végétaux, donnant à des larves qui creusent une galerie pour s'alimenter de préférence dans les zones irriguées et en croissance ou des parenchymes (larves de papillons consommant les tissus vasculaires de l'écorce écorce, larves de scolytes à l'interface écorce/aubier, larves de buprestes ou de longicornes dans l'aubier) chez les arbres (dicotylédones) ou le stipe (Charançon rouge des palmiers)[2].
-Le mode de vie de ces insectes endo-phytophages se distingue des mineurs de feuilles. La nomenclature de ces groupes écologiques demeure ambiguë. Les foreurs de végétaux semi-ligneux (non ligneux, mais avec tissus secondaires), comme certains scolytes sur les tiges d'Euphorbes (Thamnurgus aripes), sont considérés comme des phytophages non xylophages, appelés « mineurs de tiges »[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les foreurs sont un groupe écologique d'insectes xylophages appartenant principalement à l'ordre des lépidoptères et coléoptères (dont leurs larves telles que les chenilles dans le cas des lépidoptères) creusent des galeries dans les parties plus ou moins lignifiés de certaines plantes (tiges, depuis le brin d'herbe fibreux jusqu'au tronc très lignifié). Les femelles pondent des œufs dans les tissus végétaux, donnant à des larves qui creusent une galerie pour s'alimenter de préférence dans les zones irriguées et en croissance ou des parenchymes (larves de papillons consommant les tissus vasculaires de l'écorce écorce, larves de scolytes à l'interface écorce/aubier, larves de buprestes ou de longicornes dans l'aubier) chez les arbres (dicotylédones) ou le stipe (Charançon rouge des palmiers).
+Le mode de vie de ces insectes endo-phytophages se distingue des mineurs de feuilles. La nomenclature de ces groupes écologiques demeure ambiguë. Les foreurs de végétaux semi-ligneux (non ligneux, mais avec tissus secondaires), comme certains scolytes sur les tiges d'Euphorbes (Thamnurgus aripes), sont considérés comme des phytophages non xylophages, appelés « mineurs de tiges ».
 Le terme foreur est utilisé dans des noms vernaculaires français les désignant.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Ravageurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lépidoptères foreurs de tige comptent parmi les principaux ravageurs de grandes cultures céréalières (canne à sucre, maïs, mil à chandelle, riz, sorgho)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lépidoptères foreurs de tige comptent parmi les principaux ravageurs de grandes cultures céréalières (canne à sucre, maïs, mil à chandelle, riz, sorgho).
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lépidoptères
-Busseola fusca (foreur de la tige du maïs, foreur africain du maïs, foreur de tiges de céréales) (Noctuidae)
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Busseola fusca (foreur de la tige du maïs, foreur africain du maïs, foreur de tiges de céréales) (Noctuidae)
 Chilo partellus (foreur ponctué de graminées, foreur tacheté de la tige du sorgho) (Crambidae)
 Chilo polychrysus (foreur à tête noire) (Crambidae)
 Chilo sacchariphagus (foreur ponctué de la canne à sucre) (Crambidae)
@@ -569,9 +588,43 @@
 Sesamia inferens (foreur rose du riz) (Noctuidae)
 Synanthedon rhododendri (foreur du rhodhodendron) (Sesiidae)
 Telchin licus (foreur du tronc du bananier) (Castniidae)
-Zonocerus variegatus (foreur du tige du maïs)
-Coléoptères
-Apate monachus (foreur noir) (Bostrichidae)
+Zonocerus variegatus (foreur du tige du maïs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Foreur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foreur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces appelées « foreurs »</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Coléoptères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Apate monachus (foreur noir) (Bostrichidae)
 Anthores leuconotus (foreur blanc du tronc du caféier) (Cerambycidae)
 Conotrachellus humeropictus (foreur des fruits) (Curculionidae)
 Temnorhynchus coronatus (foreur des tiges du cocotier) (Scarabaeidae)</t>
